--- a/data/triangle_v7.xlsx
+++ b/data/triangle_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\La Chouette\Python\AssembleurTriangles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D48DB-C956-4CD4-BE3C-F9B562D14781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B95C2F-ABBF-4E5C-946E-FAA5E854446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10350" windowWidth="29040" windowHeight="15840" xr2:uid="{29575533-F21D-43A6-8010-B7B667BD074D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{29575533-F21D-43A6-8010-B7B667BD074D}"/>
   </bookViews>
   <sheets>
     <sheet name="triangle_v7" sheetId="1" r:id="rId1"/>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF8946-7CE4-41EA-B23A-65D3F3BF762E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2422,7 +2422,7 @@
         <v>162</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
